--- a/admin/upload_excel/uploads/loaisp.xlsx
+++ b/admin/upload_excel/uploads/loaisp.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dulieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338A82C0-3DD1-488F-BC5E-326B7BE13D87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{969BFB07-366C-43C6-8E43-92259AECBD3D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>MALOAI</t>
   </si>
@@ -51,22 +50,28 @@
     <t>Lap Top</t>
   </si>
   <si>
-    <t>Điện Thoại Thông Minh</t>
-  </si>
-  <si>
     <t>ĐHTM</t>
   </si>
   <si>
-    <t xml:space="preserve">MTB </t>
-  </si>
-  <si>
     <t>Máy tính bảng</t>
+  </si>
+  <si>
+    <t>MTB</t>
+  </si>
+  <si>
+    <t>ĐHTT</t>
+  </si>
+  <si>
+    <t>Đồng hồ thời trang</t>
+  </si>
+  <si>
+    <t>Đồng hồ thông minh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,11 +416,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C8A359-08BA-48D5-9B5A-77DFF162AF2A}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,10 +459,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -465,7 +470,15 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
